--- a/TP_Web_reparTout/Merise/DICO.xlsx
+++ b/TP_Web_reparTout/Merise/DICO.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Entité</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Structure du pneu</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>largeur_pneu</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Nom du fournisseur</t>
   </si>
   <si>
-    <t>identifiant</t>
-  </si>
-  <si>
     <t>adresse_fournisseur</t>
   </si>
   <si>
@@ -189,18 +183,12 @@
     <t>Etat du traitement de la commande</t>
   </si>
   <si>
-    <t>A   ( || BL)</t>
-  </si>
-  <si>
     <t>valeur = "radial || diagonale" ; obligatoire</t>
   </si>
   <si>
     <t>Dictionnaire de données</t>
   </si>
   <si>
-    <t>BL = boleen</t>
-  </si>
-  <si>
     <t>AN = alphanupérique</t>
   </si>
   <si>
@@ -210,44 +198,80 @@
     <t>A = alphabétique</t>
   </si>
   <si>
-    <t xml:space="preserve">num_cde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat_cde </t>
-  </si>
-  <si>
-    <t>identifiant, incrémentiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_client </t>
-  </si>
-  <si>
-    <t>num_fournisseur</t>
-  </si>
-  <si>
     <t>Identifiant numérique du fournisseur</t>
   </si>
   <si>
     <t>Identifiant numérique du client</t>
   </si>
   <si>
-    <t>num_lCde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbPneuDeCeType </t>
-  </si>
-  <si>
-    <t>ligne_cde</t>
-  </si>
-  <si>
     <t>Nombre d'articles d'un même type ayant été commandés</t>
+  </si>
+  <si>
+    <t>id_fournisseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_commande </t>
+  </si>
+  <si>
+    <t>date_commande</t>
+  </si>
+  <si>
+    <t>etat_commande</t>
+  </si>
+  <si>
+    <t>prix_total</t>
+  </si>
+  <si>
+    <t>paiement_valide</t>
+  </si>
+  <si>
+    <t>N (BL n'existe pas en MySQL)</t>
+  </si>
+  <si>
+    <t>lignes_cde</t>
+  </si>
+  <si>
+    <t>id_ligne_commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantite_commandee </t>
+  </si>
+  <si>
+    <t>prix_unitaire</t>
+  </si>
+  <si>
+    <t>Prix de l'article au moemnt de la commande (ne doit pas changer)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Date et heure à lauqeulle la conmmande a été passée</t>
+  </si>
+  <si>
+    <t>BL = boleen (ne fonctionne pas avec l'interpreteur MySQL)</t>
+  </si>
+  <si>
+    <t>identifiant, incrémentiel, obligatoire</t>
+  </si>
+  <si>
+    <t>Prix total de la commande</t>
+  </si>
+  <si>
+    <t>Etat de validation du paiement de la commande</t>
+  </si>
+  <si>
+    <t>D = date et heure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +298,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="6" tint="0.79998168889431442"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -321,6 +338,19 @@
       <sz val="7"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -367,46 +397,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF4F81BD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4F81BD"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF4F81BD"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF4F81BD"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF4F81BD"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -428,31 +423,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -462,12 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -477,25 +550,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,62 +568,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,559 +965,630 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="29">
+        <v>7</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>40</v>
+      </c>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>50</v>
+      </c>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <v>7</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="11">
+        <v>50</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11">
+        <v>10</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="11">
+        <v>10</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="24">
+        <v>40</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14">
+        <v>50</v>
+      </c>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="14">
+        <v>20</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14">
+        <v>3</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="14">
+        <v>7</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="14">
+        <v>5</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="14">
+        <v>7</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="14">
+        <v>7</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="17">
+        <v>7</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="18">
+        <v>7</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="D37" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="35">
-        <v>7</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10">
-        <v>40</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="15">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15">
-        <v>40</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="15">
-        <v>40</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="15">
-        <v>50</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="15">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="20">
-        <v>255</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="20">
-        <v>10</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="25">
-        <v>50</v>
-      </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29">
-        <v>40</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="29">
-        <v>3</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="25">
-        <v>20</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="25">
-        <v>7</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="25">
-        <v>5</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25">
-        <v>5</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="25">
-        <v>7</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="25">
-        <v>7</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="39">
-        <v>7</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="40">
-        <v>3</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="D32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
